--- a/Lesson_4/PWM_Stm32.xlsx
+++ b/Lesson_4/PWM_Stm32.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleg Volkov\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426E1935-B01F-49CF-80D9-BD8EBAE2DE66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="13395" windowHeight="10815"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Hz</t>
   </si>
@@ -45,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,10 +129,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -128,6 +142,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -143,11 +160,17 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4819650" cy="603242"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -180,6 +203,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -202,8 +226,8 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1600" b="1" i="0">
-                            <a:latin typeface="Cambria Math"/>
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -283,7 +307,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -361,11 +385,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4648200" cy="601318"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -398,6 +428,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -420,8 +451,8 @@
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1600" b="1" i="0">
-                            <a:latin typeface="Cambria Math"/>
+                          <a:rPr lang="en-US" sz="1600" b="1" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -501,7 +532,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -610,7 +641,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -643,9 +674,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -678,6 +726,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -853,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B12:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -866,7 +931,7 @@
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="12" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
@@ -890,30 +955,35 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>70</v>
+        <v>72000</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="2">
         <f>D13-1</f>
-        <v>69</v>
+        <v>71999</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
-        <v>1023</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="1">
+        <f>D14-1</f>
+        <v>999</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
@@ -931,7 +1001,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <f>D12/(D13*D14)</f>
-        <v>1005.4461667364893</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>0</v>
@@ -945,7 +1015,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1">
         <f>D16/1000</f>
-        <v>1.0054461667364893</v>
+        <v>1E-3</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>6</v>
@@ -959,7 +1029,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1">
         <f>D16/1000000</f>
-        <v>1.0054461667364893E-3</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>2</v>
@@ -969,8 +1039,9 @@
       <c r="H18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -979,7 +1050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -991,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
